--- a/biology/Zoologie/Grallaire/Grallaire.xlsx
+++ b/biology/Zoologie/Grallaire/Grallaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grallaires sont de petits passereaux de la famille des grallariidés, anciennement placés dans celle des formicariidés qui ne comprend plus que les tétémas. 
 Ils vivent dans les forêts et les bois de l'Amérique tropicale (zone néotropicale).
@@ -512,7 +524,9 @@
           <t>Taxons concernés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans l'ancienne acceptation de la famille des Grallariidae :
 toutes les espèces du genre Pittasoma:
